--- a/Bitácora_10.xlsx
+++ b/Bitácora_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13392" windowHeight="8448" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="229">
   <si>
     <t>Código: 
 GFPI-F-147</t>
@@ -813,16 +813,10 @@
     <t>Tecnólogo en Análisis y Desarrollo de Software</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>COMUNIDAD HIJAS DE MARIA AUXILIADORA - PROVINCIA NUESTRA SEÑORA DE LAS NIEVES</t>
   </si>
   <si>
     <t>860033785-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde 21/02/25 hasta </t>
   </si>
   <si>
     <t>Sor Clemencia Rojas Rojas</t>
@@ -884,80 +878,7 @@
     </r>
   </si>
   <si>
-    <t>Reportar cualquier tipo de daño en un elemento de algún dispositivo.</t>
-  </si>
-  <si>
     <t>Apoyo en las necesidades tecnológicas de las religiosas.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Creación tablas en Excel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-A partir del diseño dado en una hoja, debí diseñarlo tal cual en un Excel.</t>
-    </r>
-  </si>
-  <si>
-    <t>Resultado tabla en Excel "Inscripción confirmación"</t>
-  </si>
-  <si>
-    <t>Resultado tabla en Excel "Control asistencia"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Creación de logos y lemas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Debí dividir el logo en cuatro partes iguales, cada parte la dejé en una hoja de word, para poderla ampliar, porque debía ser como un "rommpecabezas" de cuatro hojas para que quedara del tamaño asignado "grande".</t>
-    </r>
-  </si>
-  <si>
-    <t>Creación lemas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceso creación de los logos y lemas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Imprimí las hojas de los logos, recorté los bordes sobrantes y uní todas las partes con cinta.
-Con los lemas igualmente los imprimí y recorté.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -997,46 +918,6 @@
       </rPr>
       <t xml:space="preserve">
 La actividad diaria que tengo establecida, de 2:00 p.m. a 3:00 p.m., de lunes a viernes, es encargarme de la recepción, donde debo atender llamadas si se reciben, abrir el portón solamente a los estudiantes o padres de familia que tengan alguna reunión de la cual me hayan informado, no permitir la salida de ningún estudiante que no esté autorizado.  Allí refuerzo mis normas de cortesía, mis comportamientos sociales donde demuestro respeto y amabilidad hacia los demás, desde el más pequeño hasta el más grande. Saludar, despedir, preguntar la gestión requerida en el caso de los padres de familia para de esta forma, dirigirme al profesor o administrativo solicitado y así permitir el ingreso, luego pedir de manera amable la espera y finalmente informar al siguiente turno de recepción, sobre las novedades existentes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Creación tabla en Word "Acta de posesión del personal":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Debí crear una tabla para escribir todo el personal, el nombre y el número de folo en el que se encuentran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Escanear documentos y crear los pdf:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Cuando me pasan un documento, debo tomar foto a cada hoja o página y luego, debo crear el pdf, para finalmente enviarlo por correo.</t>
     </r>
   </si>
   <si>
@@ -1085,6 +966,153 @@
     </r>
   </si>
   <si>
+    <t>senaetapaproductiva43@gmail.com</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde 08/03/25 hasta </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celebración día de la mujer:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>El día lunes 11 de marzo, durante todo el día se realizaron actividades extra laborales, en el auditorio del colegio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Días no laborales:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Los días sábados y domingos no se labora.</t>
+    </r>
+  </si>
+  <si>
+    <t>Imprimir contratos laborales de los profesores, por lado y lado de la hoja y armar los paquetes para cada uno.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arreglo paletas de tránsito de los salones:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Debí crear un documento con todos los grados, imprimirlos, recortarlos, pegarlos y poner papel adhesivo transparente encima, para de esa manera forrar toda la paleta y protegerlos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apoyo a una de las señoras de servicios generales:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Me pasaron dos carpetas donde se encontraba toda la documentación de la señora "Eloisa", donde tuve que revisar documento por documento, para sacar los contratos laborales de cada año, las afiliciones a la ARL y los registros de la pensión. Luego, debí imprimir todos estos documentos y armar una nueva carpeta llevando el orden de los años. Donde a cada hoja debí abrir los huecos y enganchar en la carpeta.
+Todo esto para una incapacidad médica, en total fu7eron 200 folios (hojas). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Creación tarjetas en Canva:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Junto a una Sor, creamos tarjetas desde cero en Canva y al mismo tiempo le iba enseñando cada función, como agregar textos, imágenes, cambiar los tamaños, fuentes y colores de los textos, entre otras cosas, como descargar cada tarjeta y enviarla por WhatsApp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Escanear documentos y crear los pdf:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Cuando me pasan un documento, debo tomar foto a cada hoja o página y luego, debo crear el pdf, para finalmente enviarlo por correo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>En la última página (63):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Captura de los PDF creados de todos los escaner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paso a paso para cargar (o subir) todo los eventos realizados en el colegio y sus fotos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Me fueron entregadas las credenciales del usuario y contraseña, para poder ingresar al “cPanel” del colegio y realizar cambios en el diseño de la página.
+En general y pocas palabras, se crearon nuevas filas en dos secciones de la página del colegio, una llamada "Galería de eventos" donde se subieron solamente fotos de los eventos grandes y más importantes del colegio (como "Asambleas de padres" "Triduo Pascual" y "Bienvenidas a los estudiantes".
+Luego, la sección de "Buenos días salesianos", en la cual se crearon  filas nuevas, para allí si explicar todas las actividades realizadas en el colegio, cada fila lleva un título prinipal donde va la fecha, un texto al lado izquierdo donde va la explicación de la actividad y al lado derecho un "carrousel" de fotos relacionadas.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1093,7 +1121,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 1:</t>
+      <t>PDF - Pág 1-3:</t>
     </r>
     <r>
       <rPr>
@@ -1105,7 +1133,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1117,7 +1145,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 2-4:</t>
+      <t>PDF - Pág 4-11
+Pág 24-27
+Pág 44 y 45
+Pág 55-57
+Pág 63:</t>
     </r>
     <r>
       <rPr>
@@ -1129,7 +1161,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1141,7 +1173,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 5 y 6:</t>
+      <t>PDF - Pág 52:</t>
     </r>
     <r>
       <rPr>
@@ -1153,7 +1185,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1165,7 +1197,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 7-20:</t>
+      <t>PDF - Pág 15:</t>
     </r>
     <r>
       <rPr>
@@ -1177,7 +1209,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1189,8 +1221,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 21-30
-Pág 41-46:</t>
+      <t>PDF - Pág 16-23
+Pág 30 y 31:</t>
     </r>
     <r>
       <rPr>
@@ -1202,7 +1234,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1214,9 +1246,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 31-33
-Pág 51-65
-Pág 71-80:</t>
+      <t>PDF - Pág 28 Y 29:</t>
     </r>
     <r>
       <rPr>
@@ -1228,7 +1258,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1240,7 +1270,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 34 y 35:</t>
+      <t>PDF - Pág 58-62:</t>
     </r>
     <r>
       <rPr>
@@ -1252,7 +1282,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1264,7 +1294,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 36 - 40:</t>
+      <t>PDF - Pág 32-34
+Pág 51:</t>
     </r>
     <r>
       <rPr>
@@ -1276,7 +1307,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1288,8 +1319,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 47-50
-Pág 66-70:</t>
+      <t>PDF - Pág 35-43
+Pág 46-50
+Pág 53 y 54:</t>
     </r>
     <r>
       <rPr>
@@ -1301,55 +1333,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/vnn2q</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Excel:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/39v61</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Excel:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/3dacmn</t>
+https://n9.cl/09tshq</t>
     </r>
   </si>
   <si>
@@ -1373,86 +1357,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/iwb6a</t>
+https://n9.cl/dtltu</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Word:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/g3ycn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Word:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/5jemz</t>
-    </r>
-  </si>
-  <si>
-    <t>Word con títulos de los logos y lema</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Word:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/gtyxpb</t>
-    </r>
-  </si>
-  <si>
-    <t>senaetapaproductiva43@gmail.com</t>
+    <t>https://n9.cl/mhub76</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3225,12 +3134,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3291,6 +3194,75 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3426,6 +3398,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3480,6 +3464,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3581,84 +3577,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4207,13 +4125,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1681119</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>187440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4257,14 +4175,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1083733</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1444473</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>165519</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4301,13 +4219,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4350,7 +4268,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>08/03/2025</a:t>
+            <a:t>23/03/2025</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4765,56 +4683,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="189"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4826,45 +4744,45 @@
       <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="173"/>
+      <c r="E8" s="194"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="200"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="182"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
       <c r="F12" s="1"/>
       <c r="G12" s="39"/>
     </row>
@@ -4875,84 +4793,84 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="197"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="203"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="224"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="197"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="221"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181" t="s">
+      <c r="C22" s="202"/>
+      <c r="D22" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="182"/>
+      <c r="E22" s="203"/>
     </row>
     <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="183"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="185"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
@@ -4961,10 +4879,10 @@
       <c r="C24" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="187"/>
+      <c r="E24" s="208"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -4974,8 +4892,8 @@
       <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="189"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
     </row>
     <row r="26" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
@@ -4984,8 +4902,8 @@
       <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="189"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
     </row>
     <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="67" t="s">
@@ -4994,8 +4912,8 @@
       <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="188"/>
-      <c r="E27" s="189"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="77" t="s">
@@ -5004,8 +4922,8 @@
       <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="189"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
@@ -5014,10 +4932,10 @@
       <c r="C29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="189" t="s">
+      <c r="E29" s="210" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5028,10 +4946,10 @@
       <c r="C30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="189" t="s">
+      <c r="E30" s="210" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5042,8 +4960,8 @@
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="189"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="77" t="s">
@@ -5052,10 +4970,10 @@
       <c r="C32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="189" t="s">
+      <c r="E32" s="210" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5066,8 +4984,8 @@
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="189"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
     </row>
     <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="77" t="s">
@@ -5076,8 +4994,8 @@
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="189"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="210"/>
     </row>
     <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="77" t="s">
@@ -5086,8 +5004,8 @@
       <c r="C35" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="188"/>
-      <c r="E35" s="189"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="210"/>
     </row>
     <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -5096,8 +5014,8 @@
       <c r="C36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="188"/>
-      <c r="E36" s="189"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -5106,8 +5024,8 @@
       <c r="C37" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="210"/>
     </row>
     <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="77" t="s">
@@ -5116,8 +5034,8 @@
       <c r="C38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="210"/>
     </row>
     <row r="39" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
@@ -5126,8 +5044,8 @@
       <c r="C39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="189"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
     </row>
     <row r="40" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="77" t="s">
@@ -5136,8 +5054,8 @@
       <c r="C40" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="189"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="210"/>
     </row>
     <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="77" t="s">
@@ -5146,8 +5064,8 @@
       <c r="C41" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="189"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="210"/>
     </row>
     <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
@@ -5156,8 +5074,8 @@
       <c r="C42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="188"/>
-      <c r="E42" s="189"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="210"/>
     </row>
     <row r="43" spans="2:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B43" s="77" t="s">
@@ -5166,10 +5084,10 @@
       <c r="C43" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="189" t="s">
+      <c r="E43" s="210" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5180,8 +5098,8 @@
       <c r="C44" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="188"/>
-      <c r="E44" s="189"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="210"/>
     </row>
     <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="77" t="s">
@@ -5190,8 +5108,8 @@
       <c r="C45" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="188"/>
-      <c r="E45" s="189"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="210"/>
     </row>
     <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="77" t="s">
@@ -5200,8 +5118,8 @@
       <c r="C46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="188"/>
-      <c r="E46" s="189"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="210"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="77" t="s">
@@ -5210,10 +5128,10 @@
       <c r="C47" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="209" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="189" t="s">
+      <c r="E47" s="210" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5224,8 +5142,8 @@
       <c r="C48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="188"/>
-      <c r="E48" s="189"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="210"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="77" t="s">
@@ -5234,10 +5152,10 @@
       <c r="C49" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="189" t="s">
+      <c r="E49" s="210" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5248,10 +5166,10 @@
       <c r="C50" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="189" t="s">
+      <c r="E50" s="210" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5262,10 +5180,10 @@
       <c r="C51" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="189" t="s">
+      <c r="E51" s="210" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5276,8 +5194,8 @@
       <c r="C52" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="188"/>
-      <c r="E52" s="189"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="210"/>
     </row>
     <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B53" s="77" t="s">
@@ -5286,8 +5204,8 @@
       <c r="C53" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="188"/>
-      <c r="E53" s="189"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="210"/>
     </row>
     <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
@@ -5296,8 +5214,8 @@
       <c r="C54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="188"/>
-      <c r="E54" s="189"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="210"/>
     </row>
     <row r="55" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
@@ -5306,8 +5224,8 @@
       <c r="C55" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="188"/>
-      <c r="E55" s="189"/>
+      <c r="D55" s="209"/>
+      <c r="E55" s="210"/>
     </row>
     <row r="56" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="78" t="s">
@@ -5316,8 +5234,8 @@
       <c r="C56" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="188"/>
-      <c r="E56" s="189"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="210"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="79" t="s">
@@ -5326,10 +5244,10 @@
       <c r="C57" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="190" t="s">
+      <c r="D57" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="191" t="s">
+      <c r="E57" s="212" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5410,10 +5328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z79"/>
+  <dimension ref="B1:Z77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5438,11 +5356,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="121"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="146" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10"/>
@@ -5466,12 +5384,12 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="149"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="148" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10"/>
@@ -5495,14 +5413,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="165"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="186"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5524,14 +5442,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="168"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5553,14 +5471,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5582,14 +5500,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5611,14 +5529,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="165"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5640,18 +5558,18 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="2:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153" t="s">
+      <c r="C8" s="150"/>
+      <c r="D8" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="154"/>
+      <c r="G8" s="152"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5723,19 +5641,19 @@
       <c r="B11" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="137" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="92">
+      <c r="C11" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="158">
         <v>1077722640</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="178">
         <v>3162745203</v>
       </c>
-      <c r="F11" s="157" t="s">
+      <c r="F11" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="158" t="s">
+      <c r="G11" s="156" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="9"/>
@@ -5819,11 +5737,11 @@
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="244" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="221"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="246"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5869,10 +5787,10 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="259" t="s">
+      <c r="B16" s="225" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="260"/>
+      <c r="C16" s="226"/>
       <c r="D16" s="125" t="s">
         <v>47</v>
       </c>
@@ -5895,21 +5813,21 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="257" t="s">
+      <c r="B17" s="227" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="228"/>
+      <c r="D17" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="258"/>
-      <c r="D17" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="256">
-        <v>9</v>
+      <c r="E17" s="157">
+        <v>10</v>
       </c>
       <c r="F17" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="279">
-        <v>45723</v>
+        <v>209</v>
+      </c>
+      <c r="G17" s="176">
+        <v>45738</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -5978,18 +5896,18 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="228"/>
+      <c r="D20" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="159">
+        <v>3168343728</v>
+      </c>
+      <c r="F20" s="161" t="s">
         <v>196</v>
-      </c>
-      <c r="C20" s="258"/>
-      <c r="D20" s="262" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="261">
-        <v>3168343728</v>
-      </c>
-      <c r="F20" s="263" t="s">
-        <v>198</v>
       </c>
       <c r="G20" s="118"/>
       <c r="H20" s="20"/>
@@ -6033,14 +5951,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="235" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="211"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="212"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -6062,18 +5980,18 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="153" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="117"/>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="281" t="s">
-        <v>233</v>
+      <c r="F23" s="174" t="s">
+        <v>206</v>
       </c>
       <c r="G23" s="118"/>
       <c r="H23" s="9"/>
@@ -6151,20 +6069,20 @@
       <c r="Y25" s="23"/>
     </row>
     <row r="26" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142" t="s">
+      <c r="D26" s="139"/>
+      <c r="E26" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -6219,10 +6137,10 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="213" t="s">
+      <c r="F28" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="214"/>
+      <c r="G28" s="239"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -6249,8 +6167,8 @@
       <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="213"/>
-      <c r="G29" s="214"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="239"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6269,7 +6187,7 @@
       <c r="Z29" s="14"/>
     </row>
     <row r="30" spans="2:26" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="142" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="46" t="s">
@@ -6341,7 +6259,9 @@
       <c r="F32" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="85"/>
+      <c r="G32" s="175" t="s">
+        <v>207</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
@@ -6367,7 +6287,7 @@
       <c r="C33" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="145"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="90" t="s">
         <v>126</v>
       </c>
@@ -6400,7 +6320,7 @@
       <c r="C34" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="146"/>
+      <c r="D34" s="144"/>
       <c r="E34" s="56"/>
       <c r="F34" s="88" t="s">
         <v>129</v>
@@ -6467,7 +6387,7 @@
         <v>134</v>
       </c>
       <c r="D36" s="89"/>
-      <c r="E36" s="143"/>
+      <c r="E36" s="141"/>
       <c r="F36" s="88" t="s">
         <v>135</v>
       </c>
@@ -6552,18 +6472,18 @@
       <c r="Y38" s="18"/>
     </row>
     <row r="39" spans="2:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="267" t="s">
+      <c r="C39" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="268"/>
-      <c r="E39" s="268"/>
-      <c r="F39" s="269" t="s">
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="270" t="s">
+      <c r="G39" s="168" t="s">
         <v>145</v>
       </c>
       <c r="H39" s="18"/>
@@ -6585,21 +6505,19 @@
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
     </row>
-    <row r="40" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="274" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="275"/>
-      <c r="D40" s="277">
-        <v>45709</v>
-      </c>
-      <c r="E40" s="277">
-        <v>45723</v>
-      </c>
-      <c r="F40" s="276" t="s">
-        <v>217</v>
-      </c>
-      <c r="G40" s="271"/>
+    <row r="40" spans="2:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="249" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="250"/>
+      <c r="D40" s="171">
+        <v>45724</v>
+      </c>
+      <c r="E40" s="171">
+        <v>45725</v>
+      </c>
+      <c r="F40" s="170"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -6619,21 +6537,21 @@
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
     </row>
-    <row r="41" spans="2:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="274" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="275"/>
-      <c r="D41" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E41" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F41" s="276" t="s">
+    <row r="41" spans="2:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="249" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="250"/>
+      <c r="D41" s="172">
+        <v>45727</v>
+      </c>
+      <c r="E41" s="172">
+        <v>45727</v>
+      </c>
+      <c r="F41" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="271"/>
+      <c r="G41" s="179"/>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -6653,21 +6571,21 @@
       <c r="X41" s="18"/>
       <c r="Y41" s="18"/>
     </row>
-    <row r="42" spans="2:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="272" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="273"/>
-      <c r="D42" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E42" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F42" s="276" t="s">
+    <row r="42" spans="2:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="247" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="248"/>
+      <c r="D42" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E42" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F42" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="G42" s="271"/>
+      <c r="G42" s="169"/>
       <c r="H42" s="20"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -6687,21 +6605,21 @@
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="2:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="274" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="275"/>
-      <c r="D43" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E43" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F43" s="276" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="271"/>
+    <row r="43" spans="2:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="249" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="250"/>
+      <c r="D43" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E43" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F43" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="169"/>
       <c r="H43" s="20"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6721,21 +6639,21 @@
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
     </row>
-    <row r="44" spans="2:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="274" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="275"/>
-      <c r="D44" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E44" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F44" s="276" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="271"/>
+    <row r="44" spans="2:26" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="249" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="250"/>
+      <c r="D44" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E44" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F44" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="169"/>
       <c r="H44" s="20"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -6755,21 +6673,21 @@
       <c r="X44" s="18"/>
       <c r="Y44" s="18"/>
     </row>
-    <row r="45" spans="2:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="272" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="273"/>
-      <c r="D45" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E45" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F45" s="276" t="s">
-        <v>228</v>
-      </c>
-      <c r="G45" s="271"/>
+    <row r="45" spans="2:26" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="249" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="248"/>
+      <c r="D45" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E45" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F45" s="170" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="169"/>
       <c r="H45" s="20"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -6789,21 +6707,21 @@
       <c r="X45" s="18"/>
       <c r="Y45" s="18"/>
     </row>
-    <row r="46" spans="2:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="272" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="273"/>
-      <c r="D46" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E46" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F46" s="276" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="271"/>
+    <row r="46" spans="2:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="249" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="248"/>
+      <c r="D46" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E46" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F46" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="169"/>
       <c r="H46" s="20"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -6823,21 +6741,21 @@
       <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="274" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="275"/>
-      <c r="D47" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E47" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F47" s="276" t="s">
-        <v>229</v>
-      </c>
-      <c r="G47" s="271"/>
+    <row r="47" spans="2:26" ht="247.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="249" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="250"/>
+      <c r="D47" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E47" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F47" s="170" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="169"/>
       <c r="H47" s="20"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -6857,21 +6775,21 @@
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="274" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="275"/>
-      <c r="D48" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E48" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F48" s="276" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="271"/>
+    <row r="48" spans="2:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="247" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="248"/>
+      <c r="D48" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E48" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F48" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="169"/>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6891,21 +6809,21 @@
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
     </row>
-    <row r="49" spans="2:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="272" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="273"/>
-      <c r="D49" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E49" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F49" s="276" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="271"/>
+    <row r="49" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="247" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="248"/>
+      <c r="D49" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E49" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F49" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="169"/>
       <c r="H49" s="20"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6925,21 +6843,19 @@
       <c r="X49" s="18"/>
       <c r="Y49" s="18"/>
     </row>
-    <row r="50" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="272" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E50" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F50" s="276" t="s">
-        <v>222</v>
-      </c>
-      <c r="G50" s="271"/>
+    <row r="50" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="247" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="248"/>
+      <c r="D50" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E50" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F50" s="170"/>
+      <c r="G50" s="169"/>
       <c r="H50" s="20"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6959,21 +6875,21 @@
       <c r="X50" s="18"/>
       <c r="Y50" s="18"/>
     </row>
-    <row r="51" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="272" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="273"/>
-      <c r="D51" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E51" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F51" s="276" t="s">
-        <v>223</v>
-      </c>
-      <c r="G51" s="271"/>
+    <row r="51" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="247" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="248"/>
+      <c r="D51" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E51" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F51" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="169"/>
       <c r="H51" s="20"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -6993,21 +6909,21 @@
       <c r="X51" s="18"/>
       <c r="Y51" s="18"/>
     </row>
-    <row r="52" spans="2:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="272" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="273"/>
-      <c r="D52" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E52" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F52" s="276" t="s">
-        <v>224</v>
-      </c>
-      <c r="G52" s="271"/>
+    <row r="52" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="247" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="248"/>
+      <c r="D52" s="172">
+        <v>45728</v>
+      </c>
+      <c r="E52" s="172">
+        <v>45738</v>
+      </c>
+      <c r="F52" s="170" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="169"/>
       <c r="H52" s="20"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -7027,21 +6943,13 @@
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
     </row>
-    <row r="53" spans="2:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="272" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="273"/>
-      <c r="D53" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E53" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F53" s="276" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" s="271"/>
+    <row r="53" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="27"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
@@ -7061,131 +6969,127 @@
       <c r="X53" s="18"/>
       <c r="Y53" s="18"/>
     </row>
-    <row r="54" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="272" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="278">
-        <v>45709</v>
-      </c>
-      <c r="E54" s="278">
-        <v>45723</v>
-      </c>
-      <c r="F54" s="276" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" s="271"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-    </row>
-    <row r="55" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="27"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-    </row>
-    <row r="56" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="100"/>
-      <c r="C56" s="101" t="s">
+    <row r="54" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="100"/>
+      <c r="C54" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-    </row>
-    <row r="57" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="216" t="s">
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+    </row>
+    <row r="55" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="217"/>
-      <c r="G57" s="218"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="242"/>
+      <c r="E55" s="242"/>
+      <c r="F55" s="242"/>
+      <c r="G55" s="243"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+    </row>
+    <row r="56" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+    </row>
+    <row r="57" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
     </row>
     <row r="58" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="105"/>
+      <c r="B58" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="107"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
@@ -7205,9 +7109,9 @@
       <c r="X58" s="29"/>
       <c r="Y58" s="29"/>
     </row>
-    <row r="59" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -7233,81 +7137,83 @@
       <c r="X59" s="29"/>
       <c r="Y59" s="29"/>
     </row>
-    <row r="60" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-    </row>
-    <row r="61" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-    </row>
-    <row r="62" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="111" t="s">
+    <row r="60" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="112" t="s">
+      <c r="C60" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="113" t="s">
+      <c r="D60" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="113" t="s">
+      <c r="E60" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="115" t="s">
-        <v>202</v>
-      </c>
+      <c r="G60" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+    </row>
+    <row r="61" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="163">
+        <v>1</v>
+      </c>
+      <c r="D61" s="108"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+    </row>
+    <row r="62" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
@@ -7328,17 +7234,14 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="264" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="265">
-        <v>1</v>
-      </c>
-      <c r="D63" s="108"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="110"/>
+    <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="30"/>
+      <c r="D63" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -7359,13 +7262,13 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+    <row r="64" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
@@ -7387,13 +7290,12 @@
       <c r="Z64" s="18"/>
     </row>
     <row r="65" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="30"/>
-      <c r="D65" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -7415,12 +7317,13 @@
       <c r="Z65" s="18"/>
     </row>
     <row r="66" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="F66" s="173">
+        <v>45724</v>
+      </c>
+      <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -7442,12 +7345,15 @@
       <c r="Z66" s="18"/>
     </row>
     <row r="67" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="B67" s="240" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="240"/>
+      <c r="D67" s="240"/>
+      <c r="F67" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -7468,13 +7374,11 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="33"/>
-      <c r="F68" s="280">
-        <v>45724</v>
-      </c>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="9"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
@@ -7497,14 +7401,10 @@
       <c r="Z68" s="18"/>
     </row>
     <row r="69" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="215" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="215"/>
-      <c r="D69" s="215"/>
-      <c r="F69" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="9"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
@@ -7526,12 +7426,12 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="9"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+    <row r="70" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="33"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="34"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
@@ -7552,12 +7452,16 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
-      <c r="C71" s="18"/>
+      <c r="C71" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D71" s="9"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
+      <c r="F71" s="240" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="240"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -7578,12 +7482,15 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="33"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="34"/>
+    <row r="72" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -7604,16 +7511,13 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="9"/>
-      <c r="C73" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="F73" s="215" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="215"/>
+    <row r="73" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -7634,102 +7538,75 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-    </row>
-    <row r="75" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-    </row>
-    <row r="76" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="204" t="s">
+    <row r="74" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="229" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="205"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-    </row>
-    <row r="77" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="207" t="s">
+      <c r="C74" s="230"/>
+      <c r="D74" s="230"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+    </row>
+    <row r="75" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="232" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="208"/>
-      <c r="D77" s="208"/>
-      <c r="E77" s="208"/>
-      <c r="F77" s="208"/>
-      <c r="G77" s="209"/>
+      <c r="C75" s="233"/>
+      <c r="D75" s="233"/>
+      <c r="E75" s="233"/>
+      <c r="F75" s="233"/>
+      <c r="G75" s="234"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+    </row>
+    <row r="76" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="116"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="118"/>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="H77" s="10"/>
-      <c r="I77" s="40"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -7748,40 +7625,11 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="116"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="118"/>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="H79" s="10"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
+  <mergeCells count="30">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -7790,52 +7638,37 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B22:G22"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B22:G22"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B55:G55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1"/>
     <hyperlink ref="G11" r:id="rId2"/>
     <hyperlink ref="F20" r:id="rId3"/>
-    <hyperlink ref="F40" r:id="rId4" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F41" r:id="rId5" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F42" r:id="rId6" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F46" r:id="rId7" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F49" r:id="rId8" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F50" r:id="rId9" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F51" r:id="rId10" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F52" r:id="rId11" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F53" r:id="rId12" display="https://n9.cl/vnn2q"/>
-    <hyperlink ref="F43" r:id="rId13" display="https://n9.cl/39v61"/>
-    <hyperlink ref="F44" r:id="rId14" display="https://n9.cl/3dacmn"/>
-    <hyperlink ref="F45" r:id="rId15" display="https://n9.cl/iwb6a"/>
-    <hyperlink ref="F47" r:id="rId16" display="https://n9.cl/g3ycn"/>
-    <hyperlink ref="F54" r:id="rId17" display="https://n9.cl/5jemz"/>
-    <hyperlink ref="F48" r:id="rId18" display="https://n9.cl/gtyxpb"/>
-    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId4"/>
+    <hyperlink ref="F41" r:id="rId5" display="https://n9.cl/09tshq"/>
+    <hyperlink ref="F52" r:id="rId6" display="https://n9.cl/dtltu"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7942,124 +7775,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="251" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="251" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="230" t="s">
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="259" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="231"/>
-      <c r="V3" s="231"/>
-      <c r="W3" s="231"/>
-      <c r="X3" s="231"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="227" t="s">
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="228"/>
-      <c r="P4" s="228"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="228"/>
-      <c r="S4" s="228"/>
-      <c r="T4" s="228"/>
-      <c r="U4" s="228"/>
-      <c r="V4" s="228"/>
-      <c r="W4" s="228"/>
-      <c r="X4" s="229"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="257"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
+      <c r="X4" s="258"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="224"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="226"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="254"/>
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="254"/>
+      <c r="W5" s="254"/>
+      <c r="X5" s="255"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -8088,66 +7921,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="252" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223" t="s">
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223" t="s">
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="223"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="252"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="252"/>
+      <c r="V7" s="252"/>
+      <c r="W7" s="252"/>
+      <c r="X7" s="252"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="233" t="s">
+      <c r="A8" s="261"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="233" t="s">
+      <c r="K8" s="263"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="234"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="234"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="234"/>
-      <c r="X8" s="235"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="264"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8176,66 +8009,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="265" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="236"/>
-      <c r="O10" s="236"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="236"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="265"/>
+      <c r="L10" s="265"/>
+      <c r="M10" s="265"/>
+      <c r="N10" s="265"/>
+      <c r="O10" s="265"/>
+      <c r="P10" s="265"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="265"/>
+      <c r="S10" s="265"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="265"/>
+      <c r="V10" s="265"/>
+      <c r="W10" s="265"/>
+      <c r="X10" s="265"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237" t="s">
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237" t="s">
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237" t="s">
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -8264,66 +8097,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="223" t="s">
+      <c r="A13" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="223"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223" t="s">
+      <c r="B13" s="252"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223" t="s">
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="252"/>
+      <c r="O13" s="252"/>
+      <c r="P13" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="223"/>
-      <c r="X13" s="223"/>
+      <c r="Q13" s="252"/>
+      <c r="R13" s="252"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="252"/>
+      <c r="X13" s="252"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="232"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233" t="s">
+      <c r="A14" s="261"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="235"/>
-      <c r="P14" s="233" t="s">
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="234"/>
-      <c r="R14" s="234"/>
-      <c r="S14" s="234"/>
-      <c r="T14" s="234"/>
-      <c r="U14" s="234"/>
-      <c r="V14" s="234"/>
-      <c r="W14" s="234"/>
-      <c r="X14" s="235"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="263"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="264"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -8352,162 +8185,162 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="272" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="243"/>
-      <c r="C16" s="243"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="243"/>
-      <c r="J16" s="244" t="s">
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="244"/>
-      <c r="M16" s="244"/>
-      <c r="N16" s="243" t="s">
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="272" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="243"/>
-      <c r="P16" s="243"/>
-      <c r="Q16" s="243"/>
-      <c r="R16" s="243"/>
-      <c r="S16" s="243"/>
-      <c r="T16" s="245" t="s">
+      <c r="O16" s="272"/>
+      <c r="P16" s="272"/>
+      <c r="Q16" s="272"/>
+      <c r="R16" s="272"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="245"/>
-      <c r="V16" s="245"/>
-      <c r="W16" s="245"/>
-      <c r="X16" s="245"/>
+      <c r="U16" s="274"/>
+      <c r="V16" s="274"/>
+      <c r="W16" s="274"/>
+      <c r="X16" s="274"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="267" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="246" t="s">
+      <c r="B17" s="259"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="268"/>
+      <c r="J17" s="275" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="248"/>
-      <c r="N17" s="238" t="s">
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="277"/>
+      <c r="N17" s="267" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="230"/>
-      <c r="P17" s="230"/>
-      <c r="Q17" s="230"/>
-      <c r="R17" s="230"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="238" t="s">
+      <c r="O17" s="259"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="259"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="268"/>
+      <c r="T17" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="U17" s="230"/>
-      <c r="V17" s="230"/>
-      <c r="W17" s="230"/>
-      <c r="X17" s="239"/>
+      <c r="U17" s="259"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="259"/>
+      <c r="X17" s="268"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="240"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="240"/>
-      <c r="O18" s="241"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="242"/>
-      <c r="T18" s="240"/>
-      <c r="U18" s="241"/>
-      <c r="V18" s="241"/>
-      <c r="W18" s="241"/>
-      <c r="X18" s="242"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="278"/>
+      <c r="K18" s="279"/>
+      <c r="L18" s="279"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="269"/>
+      <c r="O18" s="270"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="270"/>
+      <c r="R18" s="270"/>
+      <c r="S18" s="271"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="270"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="270"/>
+      <c r="X18" s="271"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="255" t="s">
+      <c r="A21" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="255"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="284"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="255" t="s">
+      <c r="J21" s="284" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="255"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="255"/>
-      <c r="N21" s="255"/>
-      <c r="O21" s="255"/>
-      <c r="P21" s="255"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="284"/>
+      <c r="O21" s="284"/>
+      <c r="P21" s="284"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="255" t="s">
+      <c r="R21" s="284" t="s">
         <v>183</v>
       </c>
-      <c r="S21" s="255"/>
-      <c r="T21" s="255"/>
-      <c r="U21" s="255"/>
-      <c r="V21" s="255"/>
-      <c r="W21" s="255"/>
-      <c r="X21" s="255"/>
+      <c r="S21" s="284"/>
+      <c r="T21" s="284"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="284"/>
+      <c r="W21" s="284"/>
+      <c r="X21" s="284"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="252" t="s">
+      <c r="P23" s="281" t="s">
         <v>184</v>
       </c>
-      <c r="Q23" s="252"/>
-      <c r="R23" s="252"/>
-      <c r="S23" s="252"/>
-      <c r="T23" s="252"/>
-      <c r="U23" s="253" t="s">
+      <c r="Q23" s="281"/>
+      <c r="R23" s="281"/>
+      <c r="S23" s="281"/>
+      <c r="T23" s="281"/>
+      <c r="U23" s="282" t="s">
         <v>185</v>
       </c>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="253"/>
+      <c r="V23" s="282"/>
+      <c r="W23" s="282"/>
+      <c r="X23" s="282"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="252" t="s">
+      <c r="P24" s="281" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="252"/>
-      <c r="S24" s="252"/>
-      <c r="T24" s="252"/>
-      <c r="U24" s="254" t="s">
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="283" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="254"/>
-      <c r="W24" s="254"/>
-      <c r="X24" s="254"/>
+      <c r="V24" s="283"/>
+      <c r="W24" s="283"/>
+      <c r="X24" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="40">
